--- a/seguridad/Informe_Mensual_Unidades.xlsx
+++ b/seguridad/Informe_Mensual_Unidades.xlsx
@@ -758,12 +758,12 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Gerardo Aguillón</t>
+          <t>Christian Aguilar</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>143</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -776,26 +776,26 @@
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>69:01:46</t>
+          <t>60:24:01</t>
         </is>
       </c>
       <c r="F2" s="1" t="n">
-        <v>895.7</v>
+        <v>750.6</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>151.32</v>
+        <v>135.65</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="1" t="inlineStr">
         <is>
-          <t>00:05:04</t>
+          <t>00:05:20</t>
         </is>
       </c>
       <c r="J2" s="1" t="inlineStr">
         <is>
-          <t>00:01:25</t>
+          <t>00:03:41</t>
         </is>
       </c>
       <c r="K2" s="1" t="inlineStr">
@@ -821,11 +821,11 @@
         <v>0</v>
       </c>
       <c r="Q2" s="1" t="n">
-        <v>71.01000000000001</v>
+        <v>76.01000000000001</v>
       </c>
       <c r="R2" s="1" t="inlineStr">
         <is>
-          <t>May 2 1:28PM CST</t>
+          <t>Jun 16 1:14PM CST</t>
         </is>
       </c>
       <c r="S2" s="1" t="n">
@@ -878,49 +878,49 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>Daniel Magallanes</t>
+          <t>Luis Ramirez</t>
         </is>
       </c>
       <c r="B3" s="1" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>FORD F350 3MTS 2006</t>
         </is>
       </c>
       <c r="D3" s="7" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E3" s="1" t="inlineStr">
         <is>
-          <t>60:53:38</t>
+          <t>38:52:21</t>
         </is>
       </c>
       <c r="F3" s="1" t="n">
-        <v>1052.9</v>
+        <v>552.2</v>
       </c>
       <c r="G3" s="1" t="n">
-        <v>90.7</v>
+        <v>202.51</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="1" t="inlineStr">
         <is>
-          <t>00:09:59</t>
+          <t>00:05:07</t>
         </is>
       </c>
       <c r="J3" s="1" t="inlineStr">
         <is>
-          <t>00:09:07</t>
+          <t>00:02:23</t>
         </is>
       </c>
       <c r="K3" s="1" t="inlineStr">
         <is>
-          <t>00:00:53</t>
+          <t>00:00:05</t>
         </is>
       </c>
       <c r="L3" s="1" t="inlineStr">
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="1" t="n">
         <v>0</v>
@@ -941,11 +941,11 @@
         <v>0</v>
       </c>
       <c r="Q3" s="1" t="n">
-        <v>84.01000000000001</v>
+        <v>79.01000000000001</v>
       </c>
       <c r="R3" s="1" t="inlineStr">
         <is>
-          <t>May 14 10:19AM CST</t>
+          <t>Jun 9 8:55AM CST</t>
         </is>
       </c>
       <c r="S3" s="1" t="n">
@@ -998,17 +998,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Christian Aguilar</t>
+          <t>Hugo López</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D4" s="7" t="n">
@@ -1016,36 +1016,36 @@
       </c>
       <c r="E4" s="1" t="inlineStr">
         <is>
-          <t>69:58:58</t>
+          <t>58:32:21</t>
         </is>
       </c>
       <c r="F4" s="1" t="n">
-        <v>892.6</v>
+        <v>878.3</v>
       </c>
       <c r="G4" s="1" t="n">
-        <v>154.73</v>
+        <v>156.83</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="1" t="inlineStr">
         <is>
-          <t>00:05:51</t>
+          <t>00:05:04</t>
         </is>
       </c>
       <c r="J4" s="1" t="inlineStr">
         <is>
-          <t>00:03:16</t>
+          <t>00:02:48</t>
         </is>
       </c>
       <c r="K4" s="1" t="inlineStr">
         <is>
-          <t>00:00:40</t>
+          <t>00:00:17</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>00:00:16</t>
+          <t>00:00:15</t>
         </is>
       </c>
       <c r="M4" s="1" t="n">
@@ -1061,11 +1061,11 @@
         <v>0</v>
       </c>
       <c r="Q4" s="1" t="n">
-        <v>85.01000000000001</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="R4" s="1" t="inlineStr">
         <is>
-          <t>May 2 3:12PM CST</t>
+          <t>Jun 19 2:47PM CST</t>
         </is>
       </c>
       <c r="S4" s="1" t="n">
@@ -1118,17 +1118,17 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Luis Ramirez</t>
+          <t>Alberto Jimenez</t>
         </is>
       </c>
       <c r="B5" s="1" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
         <is>
-          <t>FORD F350 3MTS 2006</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D5" s="7" t="n">
@@ -1136,31 +1136,31 @@
       </c>
       <c r="E5" s="1" t="inlineStr">
         <is>
-          <t>37:06:27</t>
+          <t>02:25:37</t>
         </is>
       </c>
       <c r="F5" s="1" t="n">
-        <v>437.4</v>
+        <v>59.4</v>
       </c>
       <c r="G5" s="1" t="n">
-        <v>187.36</v>
+        <v>0</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I5" s="1" t="inlineStr">
         <is>
-          <t>00:06:10</t>
+          <t>00:00:47</t>
         </is>
       </c>
       <c r="J5" s="1" t="inlineStr">
         <is>
-          <t>00:03:30</t>
+          <t>00:00:33</t>
         </is>
       </c>
       <c r="K5" s="1" t="inlineStr">
         <is>
-          <t>00:00:32</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
@@ -1181,11 +1181,11 @@
         <v>0</v>
       </c>
       <c r="Q5" s="1" t="n">
-        <v>67.01000000000001</v>
+        <v>81.36</v>
       </c>
       <c r="R5" s="1" t="inlineStr">
         <is>
-          <t>May 12 11:05AM CST</t>
+          <t>Jun 30 10:42AM CST</t>
         </is>
       </c>
       <c r="S5" s="1" t="n">
@@ -1238,17 +1238,17 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adrian Caro</t>
+          <t>José Morales</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>141</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
         <is>
-          <t>FORD RANGER 2011</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D6" s="7" t="n">
@@ -1256,43 +1256,43 @@
       </c>
       <c r="E6" s="1" t="inlineStr">
         <is>
-          <t>60:31:01</t>
+          <t>73:47:35</t>
         </is>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1096</v>
+        <v>1404.2</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>151.78</v>
+        <v>192.92</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="1" t="inlineStr">
         <is>
-          <t>00:17:24</t>
+          <t>00:29:12</t>
         </is>
       </c>
       <c r="J6" s="1" t="inlineStr">
         <is>
-          <t>00:12:53</t>
+          <t>00:23:20</t>
         </is>
       </c>
       <c r="K6" s="1" t="inlineStr">
         <is>
-          <t>00:01:06</t>
+          <t>00:02:29</t>
         </is>
       </c>
       <c r="L6" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:00</t>
         </is>
       </c>
       <c r="M6" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1" t="n">
         <v>0</v>
@@ -1301,11 +1301,11 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1" t="n">
-        <v>88.01000000000001</v>
+        <v>78.01000000000001</v>
       </c>
       <c r="R6" s="1" t="inlineStr">
         <is>
-          <t>May 10 1:15PM CST</t>
+          <t>Jun 14 11:27AM CST</t>
         </is>
       </c>
       <c r="S6" s="1" t="n">
@@ -1358,12 +1358,12 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Daniel Iñiguez</t>
+          <t>Emmanuel Salcedo</t>
         </is>
       </c>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
@@ -1372,40 +1372,40 @@
         </is>
       </c>
       <c r="D7" s="7" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E7" s="1" t="inlineStr">
         <is>
-          <t>76:53:59</t>
+          <t>60:12:50</t>
         </is>
       </c>
       <c r="F7" s="1" t="n">
-        <v>1366.6</v>
+        <v>1097.6</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>190.6</v>
+        <v>169.06</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I7" s="1" t="inlineStr">
         <is>
-          <t>00:21:04</t>
+          <t>00:19:12</t>
         </is>
       </c>
       <c r="J7" s="1" t="inlineStr">
         <is>
-          <t>00:17:47</t>
+          <t>00:16:46</t>
         </is>
       </c>
       <c r="K7" s="1" t="inlineStr">
         <is>
-          <t>00:02:43</t>
+          <t>00:01:19</t>
         </is>
       </c>
       <c r="L7" s="1" t="inlineStr">
         <is>
-          <t>00:00:22</t>
+          <t>00:00:10</t>
         </is>
       </c>
       <c r="M7" s="1" t="n">
@@ -1425,7 +1425,7 @@
       </c>
       <c r="R7" s="1" t="inlineStr">
         <is>
-          <t>May 31 2:43PM CST</t>
+          <t>Jun 21 2:25PM CST</t>
         </is>
       </c>
       <c r="S7" s="1" t="n">
@@ -1478,54 +1478,54 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Hugo López</t>
+          <t>Gerardo Aguillón</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D8" s="7" t="n">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>58:01:19</t>
+          <t>63:39:00</t>
         </is>
       </c>
       <c r="F8" s="1" t="n">
-        <v>837.2</v>
+        <v>1065.3</v>
       </c>
       <c r="G8" s="1" t="n">
-        <v>152.8</v>
+        <v>164.53</v>
       </c>
       <c r="H8" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>00:07:42</t>
+          <t>00:15:37</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>00:01:59</t>
+          <t>00:06:17</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:01:01</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:00:27</t>
         </is>
       </c>
       <c r="M8" s="1" t="n">
@@ -1541,11 +1541,11 @@
         <v>0</v>
       </c>
       <c r="Q8" s="1" t="n">
-        <v>81.01000000000001</v>
+        <v>84.01000000000001</v>
       </c>
       <c r="R8" s="1" t="inlineStr">
         <is>
-          <t>May 3 1:10PM CST</t>
+          <t>Jun 17 12:25PM CST</t>
         </is>
       </c>
       <c r="S8" s="1" t="n">
@@ -1558,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="1" t="n">
         <v>0</v>
@@ -1598,74 +1598,74 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Daniel Mercado</t>
+          <t>Diego Cardenas</t>
         </is>
       </c>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>TOYOTA HILUX 2018</t>
         </is>
       </c>
       <c r="D9" s="7" t="n">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="E9" s="1" t="inlineStr">
         <is>
-          <t>86:52:06</t>
+          <t>83:18:13</t>
         </is>
       </c>
       <c r="F9" s="1" t="n">
-        <v>1768.4</v>
+        <v>1664</v>
       </c>
       <c r="G9" s="1" t="n">
-        <v>259.75</v>
+        <v>245.08</v>
       </c>
       <c r="H9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I9" s="1" t="inlineStr">
         <is>
-          <t>00:35:59</t>
+          <t>00:29:14</t>
         </is>
       </c>
       <c r="J9" s="1" t="inlineStr">
         <is>
-          <t>00:36:50</t>
+          <t>00:17:29</t>
         </is>
       </c>
       <c r="K9" s="1" t="inlineStr">
         <is>
-          <t>00:08:48</t>
+          <t>00:02:51</t>
         </is>
       </c>
       <c r="L9" s="1" t="inlineStr">
         <is>
-          <t>00:02:42</t>
+          <t>00:00:45</t>
         </is>
       </c>
       <c r="M9" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="1" t="n">
         <v>0</v>
       </c>
       <c r="O9" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1" t="n">
-        <v>91.01000000000001</v>
+        <v>90.01000000000001</v>
       </c>
       <c r="R9" s="1" t="inlineStr">
         <is>
-          <t>May 2 9:32AM CST</t>
+          <t>Jun 14 8:20AM CST</t>
         </is>
       </c>
       <c r="S9" s="1" t="n">
@@ -1718,61 +1718,61 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Miguel Guizar</t>
+          <t>Adrian Caro</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C10" s="1" t="inlineStr">
         <is>
-          <t>Hino 300 2024</t>
-        </is>
-      </c>
-      <c r="D10" s="8" t="n">
-        <v>87</v>
+          <t>FORD RANGER 2011</t>
+        </is>
+      </c>
+      <c r="D10" s="7" t="n">
+        <v>94</v>
       </c>
       <c r="E10" s="1" t="inlineStr">
         <is>
-          <t>18:36:04</t>
+          <t>65:38:46</t>
         </is>
       </c>
       <c r="F10" s="1" t="n">
-        <v>377.1</v>
+        <v>1418</v>
       </c>
       <c r="G10" s="1" t="n">
-        <v>43.37</v>
+        <v>188.42</v>
       </c>
       <c r="H10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="inlineStr">
+        <is>
+          <t>00:29:30</t>
+        </is>
+      </c>
+      <c r="J10" s="1" t="inlineStr">
+        <is>
+          <t>00:23:46</t>
+        </is>
+      </c>
+      <c r="K10" s="1" t="inlineStr">
+        <is>
+          <t>00:06:19</t>
+        </is>
+      </c>
+      <c r="L10" s="1" t="inlineStr">
+        <is>
+          <t>00:00:32</t>
+        </is>
+      </c>
+      <c r="M10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I10" s="1" t="inlineStr">
-        <is>
-          <t>00:04:00</t>
-        </is>
-      </c>
-      <c r="J10" s="1" t="inlineStr">
-        <is>
-          <t>00:01:26</t>
-        </is>
-      </c>
-      <c r="K10" s="1" t="inlineStr">
-        <is>
-          <t>00:00:05</t>
-        </is>
-      </c>
-      <c r="L10" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="M10" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="N10" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="1" t="n">
         <v>0</v>
@@ -1781,11 +1781,11 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1" t="n">
-        <v>90.01000000000001</v>
+        <v>102.01</v>
       </c>
       <c r="R10" s="1" t="inlineStr">
         <is>
-          <t>May 26 3:58PM CST</t>
+          <t>Jun 14 3:14PM CST</t>
         </is>
       </c>
       <c r="S10" s="1" t="n">
@@ -1838,61 +1838,61 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Angel Cortez</t>
+          <t>Moises Martinez</t>
         </is>
       </c>
       <c r="B11" s="1" t="inlineStr">
         <is>
-          <t>133</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C11" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
-        </is>
-      </c>
-      <c r="D11" s="8" t="n">
-        <v>85</v>
+          <t>TOYOTA HILUX 2024</t>
+        </is>
+      </c>
+      <c r="D11" s="7" t="n">
+        <v>93</v>
       </c>
       <c r="E11" s="1" t="inlineStr">
         <is>
-          <t>81:30:42</t>
+          <t>57:30:09</t>
         </is>
       </c>
       <c r="F11" s="1" t="n">
-        <v>2251</v>
+        <v>1189</v>
       </c>
       <c r="G11" s="1" t="n">
-        <v>303.74</v>
+        <v>211.86</v>
       </c>
       <c r="H11" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" s="1" t="inlineStr">
         <is>
-          <t>00:29:49</t>
+          <t>00:24:07</t>
         </is>
       </c>
       <c r="J11" s="1" t="inlineStr">
         <is>
-          <t>00:32:56</t>
+          <t>00:24:35</t>
         </is>
       </c>
       <c r="K11" s="1" t="inlineStr">
         <is>
-          <t>00:05:47</t>
+          <t>00:04:43</t>
         </is>
       </c>
       <c r="L11" s="1" t="inlineStr">
         <is>
-          <t>00:04:30</t>
+          <t>00:00:54</t>
         </is>
       </c>
       <c r="M11" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N11" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1" t="n">
         <v>0</v>
@@ -1901,11 +1901,11 @@
         <v>0</v>
       </c>
       <c r="Q11" s="1" t="n">
-        <v>84.01000000000001</v>
+        <v>93.01000000000001</v>
       </c>
       <c r="R11" s="1" t="inlineStr">
         <is>
-          <t>May 13 1:18PM CST</t>
+          <t>Jun 12 2:57PM CST</t>
         </is>
       </c>
       <c r="S11" s="1" t="n">
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="1" t="n">
         <v>0</v>
@@ -1958,87 +1958,87 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Miguel Zamora</t>
+          <t>Fernando Ornelas</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C12" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
-        </is>
-      </c>
-      <c r="D12" s="8" t="n">
-        <v>80</v>
+          <t>TOYOTA HILUX 2020</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="n">
+        <v>91</v>
       </c>
       <c r="E12" s="1" t="inlineStr">
         <is>
-          <t>70:56:03</t>
+          <t>51:01:47</t>
         </is>
       </c>
       <c r="F12" s="1" t="n">
-        <v>2888.2</v>
+        <v>845.6</v>
       </c>
       <c r="G12" s="1" t="n">
-        <v>0</v>
+        <v>145.98</v>
       </c>
       <c r="H12" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1" t="inlineStr">
         <is>
-          <t>00:54:40</t>
+          <t>00:21:38</t>
         </is>
       </c>
       <c r="J12" s="1" t="inlineStr">
         <is>
-          <t>00:44:36</t>
+          <t>00:21:29</t>
         </is>
       </c>
       <c r="K12" s="1" t="inlineStr">
         <is>
-          <t>00:17:19</t>
+          <t>00:02:01</t>
         </is>
       </c>
       <c r="L12" s="1" t="inlineStr">
         <is>
-          <t>00:04:15</t>
+          <t>00:00:04</t>
         </is>
       </c>
       <c r="M12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N12" s="1" t="n">
-        <v>5</v>
-      </c>
       <c r="O12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>89.01000000000001</v>
+      </c>
+      <c r="R12" s="1" t="inlineStr">
+        <is>
+          <t>Jun 2 4:47PM CST</t>
+        </is>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="P12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1" t="n">
-        <v>106.06</v>
-      </c>
-      <c r="R12" s="1" t="inlineStr">
-        <is>
-          <t>May 28 6:37AM CST</t>
-        </is>
-      </c>
-      <c r="S12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="W12" s="1" t="n">
         <v>0</v>
@@ -2078,59 +2078,59 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Kevin De La O</t>
+          <t>Angel Cortez</t>
         </is>
       </c>
       <c r="B13" s="1" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>133</t>
         </is>
       </c>
       <c r="C13" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
-        </is>
-      </c>
-      <c r="D13" s="8" t="n">
-        <v>74</v>
+          <t>TOYOTA HILUX 2018</t>
+        </is>
+      </c>
+      <c r="D13" s="7" t="n">
+        <v>90</v>
       </c>
       <c r="E13" s="1" t="inlineStr">
         <is>
-          <t>66:48:39</t>
+          <t>76:30:46</t>
         </is>
       </c>
       <c r="F13" s="1" t="n">
-        <v>1498.6</v>
+        <v>2091.3</v>
       </c>
       <c r="G13" s="1" t="n">
-        <v>0</v>
+        <v>294.71</v>
       </c>
       <c r="H13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1" t="inlineStr">
+        <is>
+          <t>00:42:43</t>
+        </is>
+      </c>
+      <c r="J13" s="1" t="inlineStr">
+        <is>
+          <t>00:33:49</t>
+        </is>
+      </c>
+      <c r="K13" s="1" t="inlineStr">
+        <is>
+          <t>00:03:08</t>
+        </is>
+      </c>
+      <c r="L13" s="1" t="inlineStr">
+        <is>
+          <t>00:03:27</t>
+        </is>
+      </c>
+      <c r="M13" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I13" s="1" t="inlineStr">
-        <is>
-          <t>00:23:19</t>
-        </is>
-      </c>
-      <c r="J13" s="1" t="inlineStr">
-        <is>
-          <t>00:18:13</t>
-        </is>
-      </c>
-      <c r="K13" s="1" t="inlineStr">
-        <is>
-          <t>00:05:03</t>
-        </is>
-      </c>
-      <c r="L13" s="1" t="inlineStr">
-        <is>
-          <t>00:00:37</t>
-        </is>
-      </c>
-      <c r="M13" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="N13" s="1" t="n">
         <v>0</v>
       </c>
@@ -2141,18 +2141,18 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1" t="n">
-        <v>105.32</v>
+        <v>83.01000000000001</v>
       </c>
       <c r="R13" s="1" t="inlineStr">
         <is>
-          <t>May 29 4:45PM CST</t>
+          <t>Jun 2 3:44PM CST</t>
         </is>
       </c>
       <c r="S13" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T13" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1" t="n">
         <v>0</v>
@@ -2198,74 +2198,74 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Francisco Marquez</t>
+          <t>Daniel Iñiguez</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>131</t>
         </is>
       </c>
       <c r="C14" s="1" t="inlineStr">
         <is>
-          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
-        </is>
-      </c>
-      <c r="D14" s="8" t="n">
-        <v>72</v>
+          <t>TOYOTA HILUX 2017</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="n">
+        <v>90</v>
       </c>
       <c r="E14" s="1" t="inlineStr">
         <is>
-          <t>73:38:02</t>
+          <t>68:46:56</t>
         </is>
       </c>
       <c r="F14" s="1" t="n">
-        <v>4480.2</v>
+        <v>1374.2</v>
       </c>
       <c r="G14" s="1" t="n">
-        <v>1324.93</v>
+        <v>193.51</v>
       </c>
       <c r="H14" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1" t="inlineStr">
         <is>
-          <t>01:40:43</t>
+          <t>00:32:09</t>
         </is>
       </c>
       <c r="J14" s="1" t="inlineStr">
         <is>
-          <t>01:08:21</t>
+          <t>00:26:25</t>
         </is>
       </c>
       <c r="K14" s="1" t="inlineStr">
         <is>
-          <t>00:27:04</t>
+          <t>00:05:44</t>
         </is>
       </c>
       <c r="L14" s="1" t="inlineStr">
         <is>
-          <t>00:05:54</t>
+          <t>00:01:12</t>
         </is>
       </c>
       <c r="M14" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="N14" s="1" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="O14" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q14" s="1" t="n">
-        <v>101.01</v>
+        <v>90.01000000000001</v>
       </c>
       <c r="R14" s="1" t="inlineStr">
         <is>
-          <t>May 21 6:27AM CST</t>
+          <t>Jun 27 3:15PM CST</t>
         </is>
       </c>
       <c r="S14" s="1" t="n">
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14" s="1" t="n">
         <v>0</v>
@@ -2318,74 +2318,74 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Armando Muñoz</t>
+          <t>Marcos Barbosa</t>
         </is>
       </c>
       <c r="B15" s="1" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>TOYOTA HILUX 2023</t>
         </is>
       </c>
       <c r="D15" s="8" t="n">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="E15" s="1" t="inlineStr">
         <is>
-          <t>120:14:20</t>
+          <t>54:59:01</t>
         </is>
       </c>
       <c r="F15" s="1" t="n">
-        <v>4705.3</v>
+        <v>820.7</v>
       </c>
       <c r="G15" s="1" t="n">
-        <v>603.09</v>
+        <v>120.29</v>
       </c>
       <c r="H15" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I15" s="1" t="inlineStr">
+        <is>
+          <t>00:08:52</t>
+        </is>
+      </c>
+      <c r="J15" s="1" t="inlineStr">
+        <is>
+          <t>00:04:24</t>
+        </is>
+      </c>
+      <c r="K15" s="1" t="inlineStr">
+        <is>
+          <t>00:00:45</t>
+        </is>
+      </c>
+      <c r="L15" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="M15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="I15" s="1" t="inlineStr">
-        <is>
-          <t>01:22:54</t>
-        </is>
-      </c>
-      <c r="J15" s="1" t="inlineStr">
-        <is>
-          <t>01:11:23</t>
-        </is>
-      </c>
-      <c r="K15" s="1" t="inlineStr">
-        <is>
-          <t>00:25:17</t>
-        </is>
-      </c>
-      <c r="L15" s="1" t="inlineStr">
-        <is>
-          <t>00:15:05</t>
-        </is>
-      </c>
-      <c r="M15" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="1" t="n">
-        <v>8</v>
-      </c>
       <c r="O15" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="1" t="n">
         <v>92.01000000000001</v>
       </c>
       <c r="R15" s="1" t="inlineStr">
         <is>
-          <t>May 19 1:31PM CST</t>
+          <t>Jun 5 3:14PM CST</t>
         </is>
       </c>
       <c r="S15" s="1" t="n">
@@ -2398,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W15" s="1" t="n">
         <v>0</v>
@@ -2438,81 +2438,81 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>José Morales</t>
+          <t>Miguel Zamora</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>139</t>
         </is>
       </c>
       <c r="C16" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
-        </is>
-      </c>
-      <c r="D16" s="9" t="n">
-        <v>66</v>
+          <t>Volkswagen</t>
+        </is>
+      </c>
+      <c r="D16" s="8" t="n">
+        <v>77</v>
       </c>
       <c r="E16" s="1" t="inlineStr">
         <is>
-          <t>47:31:46</t>
+          <t>115:42:43</t>
         </is>
       </c>
       <c r="F16" s="1" t="n">
-        <v>986.2</v>
+        <v>4772.8</v>
       </c>
       <c r="G16" s="1" t="n">
-        <v>135.52</v>
+        <v>0</v>
       </c>
       <c r="H16" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" s="1" t="inlineStr">
         <is>
-          <t>00:26:49</t>
+          <t>01:12:53</t>
         </is>
       </c>
       <c r="J16" s="1" t="inlineStr">
         <is>
-          <t>00:21:18</t>
+          <t>01:37:52</t>
         </is>
       </c>
       <c r="K16" s="1" t="inlineStr">
         <is>
-          <t>00:03:18</t>
+          <t>00:44:09</t>
         </is>
       </c>
       <c r="L16" s="1" t="inlineStr">
         <is>
-          <t>00:00:11</t>
+          <t>00:06:29</t>
         </is>
       </c>
       <c r="M16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N16" s="1" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O16" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q16" s="1" t="n">
-        <v>84.01000000000001</v>
+        <v>107.6</v>
       </c>
       <c r="R16" s="1" t="inlineStr">
         <is>
-          <t>May 28 9:55AM CST</t>
+          <t>Jun 23 5:17PM CST</t>
         </is>
       </c>
       <c r="S16" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T16" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1" t="n">
         <v>0</v>
@@ -2571,16 +2571,16 @@
           <t>VW DELIVERY 10.6</t>
         </is>
       </c>
-      <c r="D17" s="9" t="n">
-        <v>57</v>
+      <c r="D17" s="8" t="n">
+        <v>71</v>
       </c>
       <c r="E17" s="1" t="inlineStr">
         <is>
-          <t>102:03:37</t>
+          <t>116:42:23</t>
         </is>
       </c>
       <c r="F17" s="1" t="n">
-        <v>5084.5</v>
+        <v>5645.8</v>
       </c>
       <c r="G17" s="1" t="n">
         <v>0</v>
@@ -2590,42 +2590,42 @@
       </c>
       <c r="I17" s="1" t="inlineStr">
         <is>
-          <t>01:32:16</t>
+          <t>01:34:38</t>
         </is>
       </c>
       <c r="J17" s="1" t="inlineStr">
         <is>
-          <t>01:37:41</t>
+          <t>01:16:10</t>
         </is>
       </c>
       <c r="K17" s="1" t="inlineStr">
         <is>
-          <t>00:27:40</t>
+          <t>00:21:26</t>
         </is>
       </c>
       <c r="L17" s="1" t="inlineStr">
         <is>
-          <t>00:19:18</t>
+          <t>00:14:23</t>
         </is>
       </c>
       <c r="M17" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" s="1" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O17" s="1" t="n">
         <v>1</v>
       </c>
       <c r="P17" s="1" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q17" s="1" t="n">
-        <v>123.94</v>
+        <v>119.54</v>
       </c>
       <c r="R17" s="1" t="inlineStr">
         <is>
-          <t>May 9 6:27AM CST</t>
+          <t>Jun 30 6:32PM CST</t>
         </is>
       </c>
       <c r="S17" s="1" t="n">
@@ -2678,87 +2678,87 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Moises Martinez</t>
+          <t>Eduardo Lopez</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
         <is>
-          <t>149</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>TOYOTA HILUX 2020</t>
         </is>
       </c>
       <c r="D18" s="9" t="n">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="E18" s="1" t="inlineStr">
         <is>
-          <t>69:42:56</t>
+          <t>64:29:25</t>
         </is>
       </c>
       <c r="F18" s="1" t="n">
-        <v>1597.4</v>
+        <v>1344.4</v>
       </c>
       <c r="G18" s="1" t="n">
-        <v>259.86</v>
+        <v>202.93</v>
       </c>
       <c r="H18" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1" t="inlineStr">
         <is>
-          <t>00:38:46</t>
+          <t>00:29:18</t>
         </is>
       </c>
       <c r="J18" s="1" t="inlineStr">
         <is>
-          <t>00:30:38</t>
+          <t>00:20:57</t>
         </is>
       </c>
       <c r="K18" s="1" t="inlineStr">
         <is>
-          <t>00:06:22</t>
+          <t>00:07:29</t>
         </is>
       </c>
       <c r="L18" s="1" t="inlineStr">
         <is>
-          <t>00:01:12</t>
+          <t>00:08:55</t>
         </is>
       </c>
       <c r="M18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="N18" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="O18" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="Q18" s="1" t="n">
-        <v>106.01</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="R18" s="1" t="inlineStr">
         <is>
-          <t>May 19 11:12AM CST</t>
+          <t>Jun 20 2:40PM CST</t>
         </is>
       </c>
       <c r="S18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T18" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1" t="n">
         <v>0</v>
       </c>
       <c r="V18" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="1" t="n">
         <v>0</v>
@@ -2798,61 +2798,61 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Martin Quezada</t>
+          <t>Eduardo Hernandez</t>
         </is>
       </c>
       <c r="B19" s="1" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>INTERNACIONAL</t>
+          <t>TOYOTA HILUX</t>
         </is>
       </c>
       <c r="D19" s="9" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="E19" s="1" t="inlineStr">
         <is>
-          <t>41:32:05</t>
+          <t>61:01:52</t>
         </is>
       </c>
       <c r="F19" s="1" t="n">
-        <v>2175.9</v>
+        <v>1106.3</v>
       </c>
       <c r="G19" s="1" t="n">
-        <v>753.72</v>
+        <v>169.66</v>
       </c>
       <c r="H19" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" s="1" t="inlineStr">
         <is>
-          <t>00:25:45</t>
+          <t>00:22:10</t>
         </is>
       </c>
       <c r="J19" s="1" t="inlineStr">
         <is>
-          <t>00:27:11</t>
+          <t>00:16:44</t>
         </is>
       </c>
       <c r="K19" s="1" t="inlineStr">
         <is>
-          <t>00:05:44</t>
+          <t>00:02:18</t>
         </is>
       </c>
       <c r="L19" s="1" t="inlineStr">
         <is>
-          <t>00:01:46</t>
+          <t>00:00:23</t>
         </is>
       </c>
       <c r="M19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N19" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O19" s="1" t="n">
         <v>0</v>
@@ -2861,18 +2861,18 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1" t="n">
-        <v>104.01</v>
+        <v>113.01</v>
       </c>
       <c r="R19" s="1" t="inlineStr">
         <is>
-          <t>May 7 1:10PM CST</t>
+          <t>Jun 5 3:01PM CST</t>
         </is>
       </c>
       <c r="S19" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T19" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1" t="n">
         <v>1</v>
@@ -2918,74 +2918,74 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Jorge Tornero</t>
+          <t>Miguel Guizar</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C20" s="1" t="inlineStr">
         <is>
-          <t>HINO 300</t>
+          <t>Hino 300 2024</t>
         </is>
       </c>
       <c r="D20" s="9" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="E20" s="1" t="inlineStr">
         <is>
-          <t>88:55:30</t>
+          <t>104:23:37</t>
         </is>
       </c>
       <c r="F20" s="1" t="n">
-        <v>2071.3</v>
+        <v>3419.8</v>
       </c>
       <c r="G20" s="1" t="n">
-        <v>196.38</v>
+        <v>349.57</v>
       </c>
       <c r="H20" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I20" s="1" t="inlineStr">
         <is>
-          <t>00:31:24</t>
+          <t>00:41:02</t>
         </is>
       </c>
       <c r="J20" s="1" t="inlineStr">
         <is>
-          <t>00:14:52</t>
+          <t>00:40:40</t>
         </is>
       </c>
       <c r="K20" s="1" t="inlineStr">
         <is>
-          <t>00:04:02</t>
+          <t>00:19:50</t>
         </is>
       </c>
       <c r="L20" s="1" t="inlineStr">
         <is>
-          <t>00:01:18</t>
+          <t>00:16:28</t>
         </is>
       </c>
       <c r="M20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="N20" s="1" t="n">
-        <v>0</v>
-      </c>
       <c r="O20" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q20" s="1" t="n">
-        <v>110.01</v>
+        <v>111.01</v>
       </c>
       <c r="R20" s="1" t="inlineStr">
         <is>
-          <t>May 19 1:09PM CST</t>
+          <t>Jun 17 9:22AM CST</t>
         </is>
       </c>
       <c r="S20" s="1" t="n">
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
       <c r="X20" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1" t="inlineStr">
         <is>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="AD20" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1" t="n">
         <v>0</v>
@@ -3038,81 +3038,81 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Fernando Garcia</t>
+          <t>Mario Ballinas</t>
         </is>
       </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C21" s="1" t="inlineStr">
         <is>
-          <t>Volkswagen</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D21" s="9" t="n">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="E21" s="1" t="inlineStr">
         <is>
-          <t>123:29:16</t>
+          <t>69:54:53</t>
         </is>
       </c>
       <c r="F21" s="1" t="n">
-        <v>5779.9</v>
+        <v>1539</v>
       </c>
       <c r="G21" s="1" t="n">
-        <v>0</v>
+        <v>232.86</v>
       </c>
       <c r="H21" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1" t="inlineStr">
+        <is>
+          <t>00:45:14</t>
+        </is>
+      </c>
+      <c r="J21" s="1" t="inlineStr">
+        <is>
+          <t>00:35:08</t>
+        </is>
+      </c>
+      <c r="K21" s="1" t="inlineStr">
+        <is>
+          <t>00:07:37</t>
+        </is>
+      </c>
+      <c r="L21" s="1" t="inlineStr">
+        <is>
+          <t>00:03:53</t>
+        </is>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="I21" s="1" t="inlineStr">
-        <is>
-          <t>02:49:26</t>
-        </is>
-      </c>
-      <c r="J21" s="1" t="inlineStr">
-        <is>
-          <t>02:33:28</t>
-        </is>
-      </c>
-      <c r="K21" s="1" t="inlineStr">
-        <is>
-          <t>01:02:43</t>
-        </is>
-      </c>
-      <c r="L21" s="1" t="inlineStr">
-        <is>
-          <t>00:30:40</t>
-        </is>
-      </c>
-      <c r="M21" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="N21" s="1" t="n">
-        <v>17</v>
-      </c>
       <c r="O21" s="1" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="1" t="n">
-        <v>106.63</v>
+        <v>109.01</v>
       </c>
       <c r="R21" s="1" t="inlineStr">
         <is>
-          <t>May 16 12:21PM CST</t>
+          <t>Jun 12 4:25PM CST</t>
         </is>
       </c>
       <c r="S21" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T21" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" s="1" t="n">
         <v>0</v>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
       <c r="X21" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="1" t="inlineStr">
         <is>
@@ -3158,61 +3158,61 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Lara</t>
+          <t>Daniel Mercado</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C22" s="1" t="inlineStr">
         <is>
-          <t>WORKEN</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D22" s="9" t="n">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="E22" s="1" t="inlineStr">
         <is>
-          <t>73:47:48</t>
+          <t>89:07:37</t>
         </is>
       </c>
       <c r="F22" s="1" t="n">
-        <v>3549.4</v>
+        <v>2014.3</v>
       </c>
       <c r="G22" s="1" t="n">
-        <v>896.74</v>
+        <v>274.43</v>
       </c>
       <c r="H22" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I22" s="1" t="inlineStr">
         <is>
-          <t>00:06:42</t>
+          <t>00:46:38</t>
         </is>
       </c>
       <c r="J22" s="1" t="inlineStr">
         <is>
-          <t>00:04:30</t>
+          <t>00:41:32</t>
         </is>
       </c>
       <c r="K22" s="1" t="inlineStr">
         <is>
-          <t>00:00:17</t>
+          <t>00:09:40</t>
         </is>
       </c>
       <c r="L22" s="1" t="inlineStr">
         <is>
-          <t>00:01:03</t>
+          <t>00:01:37</t>
         </is>
       </c>
       <c r="M22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N22" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O22" s="1" t="n">
         <v>0</v>
@@ -3221,18 +3221,18 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1" t="n">
-        <v>71.01000000000001</v>
+        <v>89.01000000000001</v>
       </c>
       <c r="R22" s="1" t="inlineStr">
         <is>
-          <t>May 21 7:35PM CST</t>
+          <t>Jun 11 12:34PM CST</t>
         </is>
       </c>
       <c r="S22" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T22" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1" t="n">
         <v>1</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="AD22" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1" t="n">
         <v>0</v>
@@ -3278,74 +3278,74 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Mario Ballinas</t>
+          <t>Armando Muñoz</t>
         </is>
       </c>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D23" s="9" t="n">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="E23" s="1" t="inlineStr">
         <is>
-          <t>73:57:56</t>
+          <t>114:17:13</t>
         </is>
       </c>
       <c r="F23" s="1" t="n">
-        <v>1933.8</v>
+        <v>4644.4</v>
       </c>
       <c r="G23" s="1" t="n">
-        <v>288.86</v>
+        <v>586.52</v>
       </c>
       <c r="H23" s="1" t="n">
         <v>0</v>
       </c>
       <c r="I23" s="1" t="inlineStr">
         <is>
-          <t>01:07:08</t>
+          <t>01:47:02</t>
         </is>
       </c>
       <c r="J23" s="1" t="inlineStr">
         <is>
-          <t>01:20:36</t>
+          <t>01:45:12</t>
         </is>
       </c>
       <c r="K23" s="1" t="inlineStr">
         <is>
-          <t>00:29:34</t>
+          <t>00:49:22</t>
         </is>
       </c>
       <c r="L23" s="1" t="inlineStr">
         <is>
-          <t>00:33:45</t>
+          <t>00:19:23</t>
         </is>
       </c>
       <c r="M23" s="1" t="n">
         <v>1</v>
       </c>
       <c r="N23" s="1" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="O23" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="P23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="P23" s="1" t="n">
-        <v>11</v>
-      </c>
       <c r="Q23" s="1" t="n">
-        <v>134.01</v>
+        <v>93.01000000000001</v>
       </c>
       <c r="R23" s="1" t="inlineStr">
         <is>
-          <t>May 15 4:04PM CST</t>
+          <t>Jun 11 6:40AM CST</t>
         </is>
       </c>
       <c r="S23" s="1" t="n">
@@ -3398,74 +3398,74 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Alexis Alvarado</t>
+          <t>Daniel Magallanes</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>127</t>
         </is>
       </c>
       <c r="C24" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>TOYOTA HILUX 2017</t>
         </is>
       </c>
       <c r="D24" s="9" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="E24" s="1" t="inlineStr">
         <is>
-          <t>103:41:01</t>
+          <t>65:43:24</t>
         </is>
       </c>
       <c r="F24" s="1" t="n">
-        <v>5873.9</v>
+        <v>1523.6</v>
       </c>
       <c r="G24" s="1" t="n">
-        <v>1359.87</v>
+        <v>120.37</v>
       </c>
       <c r="H24" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I24" s="1" t="inlineStr">
         <is>
-          <t>02:19:41</t>
+          <t>00:31:28</t>
         </is>
       </c>
       <c r="J24" s="1" t="inlineStr">
         <is>
-          <t>03:30:47</t>
+          <t>00:38:13</t>
         </is>
       </c>
       <c r="K24" s="1" t="inlineStr">
         <is>
-          <t>01:15:10</t>
+          <t>00:11:33</t>
         </is>
       </c>
       <c r="L24" s="1" t="inlineStr">
         <is>
-          <t>00:46:12</t>
+          <t>00:15:55</t>
         </is>
       </c>
       <c r="M24" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N24" s="1" t="n">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="O24" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="Q24" s="1" t="n">
-        <v>104.01</v>
+        <v>132.01</v>
       </c>
       <c r="R24" s="1" t="inlineStr">
         <is>
-          <t>May 21 8:18PM CST</t>
+          <t>Jun 9 4:56PM CST</t>
         </is>
       </c>
       <c r="S24" s="1" t="n">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="AD24" s="1" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1" t="n">
         <v>0</v>
@@ -3518,87 +3518,87 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Luis Galindo</t>
+          <t>Kevin De La O</t>
         </is>
       </c>
       <c r="B25" s="1" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH 2009</t>
+          <t>VAN HYUNDAI</t>
         </is>
       </c>
       <c r="D25" s="9" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E25" s="1" t="inlineStr">
         <is>
-          <t>113:18:47</t>
+          <t>71:09:40</t>
         </is>
       </c>
       <c r="F25" s="1" t="n">
-        <v>5654.2</v>
+        <v>1549.7</v>
       </c>
       <c r="G25" s="1" t="n">
-        <v>1465.15</v>
+        <v>0</v>
       </c>
       <c r="H25" s="1" t="n">
         <v>3</v>
       </c>
       <c r="I25" s="1" t="inlineStr">
         <is>
-          <t>01:34:47</t>
+          <t>00:32:00</t>
         </is>
       </c>
       <c r="J25" s="1" t="inlineStr">
         <is>
-          <t>03:07:25</t>
+          <t>00:24:09</t>
         </is>
       </c>
       <c r="K25" s="1" t="inlineStr">
         <is>
-          <t>01:26:58</t>
+          <t>00:04:53</t>
         </is>
       </c>
       <c r="L25" s="1" t="inlineStr">
         <is>
-          <t>00:41:15</t>
+          <t>00:00:22</t>
         </is>
       </c>
       <c r="M25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <v>99.31999999999999</v>
+      </c>
+      <c r="R25" s="1" t="inlineStr">
+        <is>
+          <t>Jun 9 8:58AM CST</t>
+        </is>
+      </c>
+      <c r="S25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="N25" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="O25" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="P25" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q25" s="1" t="n">
-        <v>139.01</v>
-      </c>
-      <c r="R25" s="1" t="inlineStr">
-        <is>
-          <t>May 9 3:35PM CST</t>
-        </is>
-      </c>
-      <c r="S25" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" s="1" t="n">
+      <c r="U25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" s="1" t="n">
         <v>1</v>
-      </c>
-      <c r="U25" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="V25" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="W25" s="1" t="n">
         <v>0</v>
@@ -3638,84 +3638,84 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Álvaro Zapata</t>
+          <t>Fernando Garcia</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C26" s="1" t="inlineStr">
         <is>
-          <t>KENWORTH</t>
+          <t>Volkswagen</t>
         </is>
       </c>
       <c r="D26" s="9" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E26" s="1" t="inlineStr">
         <is>
-          <t>113:35:57</t>
+          <t>115:02:23</t>
         </is>
       </c>
       <c r="F26" s="1" t="n">
-        <v>5261.9</v>
+        <v>5482.2</v>
       </c>
       <c r="G26" s="1" t="n">
-        <v>1388.09</v>
+        <v>0</v>
       </c>
       <c r="H26" s="1" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I26" s="1" t="inlineStr">
         <is>
-          <t>01:04:24</t>
+          <t>02:16:31</t>
         </is>
       </c>
       <c r="J26" s="1" t="inlineStr">
         <is>
-          <t>00:58:01</t>
+          <t>02:26:06</t>
         </is>
       </c>
       <c r="K26" s="1" t="inlineStr">
         <is>
-          <t>00:14:32</t>
+          <t>00:48:12</t>
         </is>
       </c>
       <c r="L26" s="1" t="inlineStr">
         <is>
-          <t>00:08:12</t>
+          <t>00:25:41</t>
         </is>
       </c>
       <c r="M26" s="1" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N26" s="1" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="O26" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P26" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q26" s="1" t="n">
-        <v>128.01</v>
+        <v>101.02</v>
       </c>
       <c r="R26" s="1" t="inlineStr">
         <is>
-          <t>May 31 3:05PM CST</t>
+          <t>Jun 11 9:14AM CST</t>
         </is>
       </c>
       <c r="S26" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T26" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" s="1" t="n">
         <v>0</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="AD26" s="1" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1" t="n">
         <v>0</v>
@@ -3758,118 +3758,118 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Alejandro Suarez</t>
+          <t>Álvaro Zapata</t>
         </is>
       </c>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C27" s="1" t="inlineStr">
         <is>
-          <t>HINO 500</t>
+          <t>KENWORTH</t>
         </is>
       </c>
       <c r="D27" s="9" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="E27" s="1" t="inlineStr">
         <is>
-          <t>69:48:12</t>
+          <t>81:39:52</t>
         </is>
       </c>
       <c r="F27" s="1" t="n">
-        <v>3693.8</v>
+        <v>3776.6</v>
       </c>
       <c r="G27" s="1" t="n">
-        <v>900.4</v>
+        <v>1015.69</v>
       </c>
       <c r="H27" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I27" s="1" t="inlineStr">
         <is>
-          <t>01:42:43</t>
+          <t>00:52:33</t>
         </is>
       </c>
       <c r="J27" s="1" t="inlineStr">
         <is>
-          <t>01:25:53</t>
+          <t>00:44:34</t>
         </is>
       </c>
       <c r="K27" s="1" t="inlineStr">
         <is>
-          <t>00:33:08</t>
+          <t>00:15:06</t>
         </is>
       </c>
       <c r="L27" s="1" t="inlineStr">
         <is>
-          <t>00:15:37</t>
+          <t>00:08:18</t>
         </is>
       </c>
       <c r="M27" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N27" s="1" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O27" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>122.01</v>
+      </c>
+      <c r="R27" s="1" t="inlineStr">
+        <is>
+          <t>Jun 11 12:14PM CST</t>
+        </is>
+      </c>
+      <c r="S27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z27" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="Q27" s="1" t="n">
-        <v>110.01</v>
-      </c>
-      <c r="R27" s="1" t="inlineStr">
-        <is>
-          <t>May 30 5:07AM CST</t>
-        </is>
-      </c>
-      <c r="S27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y27" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z27" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="1" t="n">
-        <v>4</v>
-      </c>
       <c r="AE27" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF27" s="1" t="n">
         <v>0</v>
@@ -3878,118 +3878,118 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Diego Cardenas</t>
+          <t>Alejandro Suarez</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2018</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D28" s="9" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E28" s="1" t="inlineStr">
         <is>
-          <t>107:37:49</t>
+          <t>96:21:40</t>
         </is>
       </c>
       <c r="F28" s="1" t="n">
-        <v>2268.4</v>
+        <v>5526.7</v>
       </c>
       <c r="G28" s="1" t="n">
-        <v>314.48</v>
+        <v>1339.65</v>
       </c>
       <c r="H28" s="1" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I28" s="1" t="inlineStr">
         <is>
-          <t>00:34:42</t>
+          <t>01:43:35</t>
         </is>
       </c>
       <c r="J28" s="1" t="inlineStr">
         <is>
-          <t>00:16:34</t>
+          <t>02:36:47</t>
         </is>
       </c>
       <c r="K28" s="1" t="inlineStr">
         <is>
-          <t>00:02:08</t>
+          <t>00:51:51</t>
         </is>
       </c>
       <c r="L28" s="1" t="inlineStr">
         <is>
-          <t>00:00:33</t>
+          <t>00:26:57</t>
         </is>
       </c>
       <c r="M28" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N28" s="1" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="O28" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="P28" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q28" s="1" t="n">
-        <v>89.01000000000001</v>
+        <v>112.01</v>
       </c>
       <c r="R28" s="1" t="inlineStr">
         <is>
-          <t>May 8 4:49PM CST</t>
+          <t>Jun 25 2:01PM CST</t>
         </is>
       </c>
       <c r="S28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T28" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28" s="1" t="n">
         <v>0</v>
       </c>
       <c r="V28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z28" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="W28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z28" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE28" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="AF28" s="1" t="n">
         <v>0</v>
@@ -3998,74 +3998,74 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Abraham Arana</t>
+          <t>Alexis Alvarado</t>
         </is>
       </c>
       <c r="B29" s="1" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>145</t>
         </is>
       </c>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2021</t>
+          <t>HINO 500</t>
         </is>
       </c>
       <c r="D29" s="9" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="E29" s="1" t="inlineStr">
         <is>
-          <t>78:52:15</t>
+          <t>45:44:59</t>
         </is>
       </c>
       <c r="F29" s="1" t="n">
-        <v>2090.3</v>
+        <v>2717.5</v>
       </c>
       <c r="G29" s="1" t="n">
-        <v>293.83</v>
+        <v>656.27</v>
       </c>
       <c r="H29" s="1" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I29" s="1" t="inlineStr">
         <is>
-          <t>01:04:47</t>
+          <t>01:03:18</t>
         </is>
       </c>
       <c r="J29" s="1" t="inlineStr">
         <is>
-          <t>01:01:23</t>
+          <t>01:22:17</t>
         </is>
       </c>
       <c r="K29" s="1" t="inlineStr">
         <is>
-          <t>00:12:00</t>
+          <t>00:35:53</t>
         </is>
       </c>
       <c r="L29" s="1" t="inlineStr">
         <is>
-          <t>00:02:20</t>
+          <t>00:12:02</t>
         </is>
       </c>
       <c r="M29" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N29" s="1" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O29" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P29" s="1" t="n">
         <v>0</v>
       </c>
       <c r="Q29" s="1" t="n">
-        <v>128.01</v>
+        <v>107.01</v>
       </c>
       <c r="R29" s="1" t="inlineStr">
         <is>
-          <t>May 22 3:51PM CST</t>
+          <t>Jun 13 4:26AM CST</t>
         </is>
       </c>
       <c r="S29" s="1" t="n">
@@ -4078,13 +4078,13 @@
         <v>0</v>
       </c>
       <c r="V29" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W29" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" s="1" t="inlineStr">
         <is>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="1" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="1" t="n">
         <v>0</v>
@@ -4118,61 +4118,61 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Luis Ibarra</t>
+          <t>Jorge Tornero</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>117</t>
         </is>
       </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2024</t>
+          <t>HINO 300</t>
         </is>
       </c>
       <c r="D30" s="9" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E30" s="1" t="inlineStr">
         <is>
-          <t>92:55:32</t>
+          <t>74:24:48</t>
         </is>
       </c>
       <c r="F30" s="1" t="n">
-        <v>2043.1</v>
+        <v>1511.4</v>
       </c>
       <c r="G30" s="1" t="n">
-        <v>279.48</v>
+        <v>151.65</v>
       </c>
       <c r="H30" s="1" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I30" s="1" t="inlineStr">
         <is>
-          <t>00:17:26</t>
+          <t>00:31:34</t>
         </is>
       </c>
       <c r="J30" s="1" t="inlineStr">
         <is>
-          <t>00:08:20</t>
+          <t>00:12:34</t>
         </is>
       </c>
       <c r="K30" s="1" t="inlineStr">
         <is>
-          <t>00:04:20</t>
+          <t>00:01:07</t>
         </is>
       </c>
       <c r="L30" s="1" t="inlineStr">
         <is>
-          <t>00:01:32</t>
+          <t>00:00:29</t>
         </is>
       </c>
       <c r="M30" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N30" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30" s="1" t="n">
         <v>0</v>
@@ -4181,11 +4181,11 @@
         <v>0</v>
       </c>
       <c r="Q30" s="1" t="n">
-        <v>96.01000000000001</v>
+        <v>86.01000000000001</v>
       </c>
       <c r="R30" s="1" t="inlineStr">
         <is>
-          <t>May 8 2:34PM CST</t>
+          <t>Jun 24 9:05AM CST</t>
         </is>
       </c>
       <c r="S30" s="1" t="n">
@@ -4198,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="V30" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W30" s="1" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="AD30" s="1" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AE30" s="1" t="n">
         <v>0</v>
@@ -4238,115 +4238,115 @@
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Emmanuel Salcedo</t>
+          <t>Francisco Marquez</t>
         </is>
       </c>
       <c r="B31" s="1" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>135</t>
         </is>
       </c>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2017</t>
+          <t>FREIGHTLINER NUEVA M2 106 52K 6X4</t>
         </is>
       </c>
       <c r="D31" s="9" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E31" s="1" t="inlineStr">
         <is>
-          <t>85:01:10</t>
+          <t>77:27:12</t>
         </is>
       </c>
       <c r="F31" s="1" t="n">
-        <v>1506</v>
+        <v>4252.7</v>
       </c>
       <c r="G31" s="1" t="n">
-        <v>257.27</v>
+        <v>1256.94</v>
       </c>
       <c r="H31" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I31" s="1" t="inlineStr">
         <is>
-          <t>00:33:28</t>
+          <t>01:29:09</t>
         </is>
       </c>
       <c r="J31" s="1" t="inlineStr">
         <is>
-          <t>00:21:46</t>
+          <t>01:21:03</t>
         </is>
       </c>
       <c r="K31" s="1" t="inlineStr">
         <is>
-          <t>00:04:02</t>
+          <t>00:46:08</t>
         </is>
       </c>
       <c r="L31" s="1" t="inlineStr">
         <is>
-          <t>00:00:38</t>
+          <t>00:15:35</t>
         </is>
       </c>
       <c r="M31" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N31" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O31" s="1" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="P31" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q31" s="1" t="n">
-        <v>97.01000000000001</v>
+        <v>102.01</v>
       </c>
       <c r="R31" s="1" t="inlineStr">
         <is>
-          <t>May 19 4:55PM CST</t>
+          <t>Jun 9 7:13AM CST</t>
         </is>
       </c>
       <c r="S31" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z31" s="1" t="inlineStr">
+        <is>
+          <t>00:00:00</t>
+        </is>
+      </c>
+      <c r="AA31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="1" t="n">
         <v>2</v>
-      </c>
-      <c r="U31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X31" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y31" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z31" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
-      <c r="AA31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC31" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD31" s="1" t="n">
-        <v>0</v>
       </c>
       <c r="AE31" s="1" t="n">
         <v>0</v>
@@ -4358,87 +4358,87 @@
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Lopez</t>
+          <t>Luis Galindo</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>KENWORTH 2009</t>
         </is>
       </c>
       <c r="D32" s="9" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E32" s="1" t="inlineStr">
         <is>
-          <t>60:30:45</t>
+          <t>72:17:32</t>
         </is>
       </c>
       <c r="F32" s="1" t="n">
-        <v>1458</v>
+        <v>3311.5</v>
       </c>
       <c r="G32" s="1" t="n">
-        <v>219.04</v>
+        <v>900.61</v>
       </c>
       <c r="H32" s="1" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I32" s="1" t="inlineStr">
         <is>
-          <t>00:35:50</t>
+          <t>00:51:00</t>
         </is>
       </c>
       <c r="J32" s="1" t="inlineStr">
         <is>
-          <t>00:30:25</t>
+          <t>01:48:51</t>
         </is>
       </c>
       <c r="K32" s="1" t="inlineStr">
         <is>
-          <t>00:06:13</t>
+          <t>00:51:28</t>
         </is>
       </c>
       <c r="L32" s="1" t="inlineStr">
         <is>
-          <t>00:00:42</t>
+          <t>00:19:39</t>
         </is>
       </c>
       <c r="M32" s="1" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N32" s="1" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="O32" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P32" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q32" s="1" t="n">
-        <v>106.01</v>
+        <v>133.01</v>
       </c>
       <c r="R32" s="1" t="inlineStr">
         <is>
-          <t>May 9 9:35AM CST</t>
+          <t>Jun 6 12:40PM CST</t>
         </is>
       </c>
       <c r="S32" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T32" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U32" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" s="1" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="W32" s="1" t="n">
         <v>0</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="1" t="n">
         <v>0</v>
@@ -4478,17 +4478,17 @@
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Alberto Jimenez</t>
+          <t>Alejandro Lara</t>
         </is>
       </c>
       <c r="B33" s="1" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C33" s="1" t="inlineStr">
         <is>
-          <t>VAN HYUNDAI</t>
+          <t>WORKEN</t>
         </is>
       </c>
       <c r="D33" s="9" t="n">
@@ -4496,75 +4496,75 @@
       </c>
       <c r="E33" s="1" t="inlineStr">
         <is>
-          <t>67:57:10</t>
+          <t>75:32:04</t>
         </is>
       </c>
       <c r="F33" s="1" t="n">
-        <v>1416.9</v>
+        <v>3676.6</v>
       </c>
       <c r="G33" s="1" t="n">
-        <v>0</v>
+        <v>909.4400000000001</v>
       </c>
       <c r="H33" s="1" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I33" s="1" t="inlineStr">
         <is>
-          <t>00:46:55</t>
+          <t>00:19:09</t>
         </is>
       </c>
       <c r="J33" s="1" t="inlineStr">
         <is>
-          <t>00:52:24</t>
+          <t>00:24:07</t>
         </is>
       </c>
       <c r="K33" s="1" t="inlineStr">
         <is>
-          <t>00:23:06</t>
+          <t>00:12:02</t>
         </is>
       </c>
       <c r="L33" s="1" t="inlineStr">
         <is>
-          <t>00:08:01</t>
+          <t>00:12:06</t>
         </is>
       </c>
       <c r="M33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N33" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O33" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" s="1" t="n">
-        <v>122.78</v>
+        <v>143.01</v>
       </c>
       <c r="R33" s="1" t="inlineStr">
         <is>
-          <t>May 27 3:53PM CST</t>
+          <t>Jun 28 7:34PM CST</t>
         </is>
       </c>
       <c r="S33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T33" s="1" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U33" s="1" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V33" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X33" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y33" s="1" t="inlineStr">
         <is>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="AD33" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE33" s="1" t="n">
         <v>0</v>
@@ -4598,17 +4598,17 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Eduardo Hernandez</t>
+          <t>Luis Ibarra</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C34" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX</t>
+          <t>TOYOTA HILUX 2024</t>
         </is>
       </c>
       <c r="D34" s="9" t="n">
@@ -4616,86 +4616,86 @@
       </c>
       <c r="E34" s="1" t="inlineStr">
         <is>
-          <t>70:35:14</t>
+          <t>94:41:52</t>
         </is>
       </c>
       <c r="F34" s="1" t="n">
-        <v>1228</v>
+        <v>2055.8</v>
       </c>
       <c r="G34" s="1" t="n">
-        <v>189.3</v>
+        <v>279.27</v>
       </c>
       <c r="H34" s="1" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I34" s="1" t="inlineStr">
         <is>
-          <t>00:15:54</t>
+          <t>00:17:52</t>
         </is>
       </c>
       <c r="J34" s="1" t="inlineStr">
         <is>
-          <t>00:07:28</t>
+          <t>00:10:01</t>
         </is>
       </c>
       <c r="K34" s="1" t="inlineStr">
         <is>
-          <t>00:00:05</t>
+          <t>00:03:02</t>
         </is>
       </c>
       <c r="L34" s="1" t="inlineStr">
         <is>
+          <t>00:00:17</t>
+        </is>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1" t="n">
+        <v>93.01000000000001</v>
+      </c>
+      <c r="R34" s="1" t="inlineStr">
+        <is>
+          <t>Jun 12 1:21PM CST</t>
+        </is>
+      </c>
+      <c r="S34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="W34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z34" s="1" t="inlineStr">
+        <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="M34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="1" t="n">
-        <v>79.01000000000001</v>
-      </c>
-      <c r="R34" s="1" t="inlineStr">
-        <is>
-          <t>May 27 1:57PM CST</t>
-        </is>
-      </c>
-      <c r="S34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W34" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y34" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z34" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="AA34" s="1" t="n">
         <v>0</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="AD34" s="1" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE34" s="1" t="n">
         <v>0</v>
@@ -4736,36 +4736,36 @@
       </c>
       <c r="E35" s="1" t="inlineStr">
         <is>
-          <t>58:35:02</t>
+          <t>61:53:22</t>
         </is>
       </c>
       <c r="F35" s="1" t="n">
-        <v>1219.8</v>
+        <v>1222.3</v>
       </c>
       <c r="G35" s="1" t="n">
-        <v>103.36</v>
+        <v>112.95</v>
       </c>
       <c r="H35" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I35" s="1" t="inlineStr">
         <is>
-          <t>00:30:20</t>
+          <t>00:29:42</t>
         </is>
       </c>
       <c r="J35" s="1" t="inlineStr">
         <is>
-          <t>00:41:40</t>
+          <t>00:43:54</t>
         </is>
       </c>
       <c r="K35" s="1" t="inlineStr">
         <is>
-          <t>00:10:47</t>
+          <t>00:14:03</t>
         </is>
       </c>
       <c r="L35" s="1" t="inlineStr">
         <is>
-          <t>00:03:09</t>
+          <t>00:03:28</t>
         </is>
       </c>
       <c r="M35" s="1" t="n">
@@ -4775,7 +4775,7 @@
         <v>1</v>
       </c>
       <c r="O35" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="1" t="n">
         <v>0</v>
@@ -4785,17 +4785,17 @@
       </c>
       <c r="R35" s="1" t="inlineStr">
         <is>
-          <t>May 27 9:07AM CST</t>
+          <t>Jun 6 12:41PM CST</t>
         </is>
       </c>
       <c r="S35" s="1" t="n">
         <v>0</v>
       </c>
       <c r="T35" s="1" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="U35" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V35" s="1" t="n">
         <v>0</v>
@@ -4856,36 +4856,36 @@
       </c>
       <c r="E36" s="1" t="inlineStr">
         <is>
-          <t>56:07:30</t>
+          <t>58:06:56</t>
         </is>
       </c>
       <c r="F36" s="1" t="n">
-        <v>1044.5</v>
+        <v>1115.1</v>
       </c>
       <c r="G36" s="1" t="n">
-        <v>116.33</v>
+        <v>118.92</v>
       </c>
       <c r="H36" s="1" t="n">
         <v>6</v>
       </c>
       <c r="I36" s="1" t="inlineStr">
         <is>
-          <t>00:40:39</t>
+          <t>00:39:43</t>
         </is>
       </c>
       <c r="J36" s="1" t="inlineStr">
         <is>
-          <t>00:43:47</t>
+          <t>00:43:58</t>
         </is>
       </c>
       <c r="K36" s="1" t="inlineStr">
         <is>
-          <t>00:07:55</t>
+          <t>00:09:15</t>
         </is>
       </c>
       <c r="L36" s="1" t="inlineStr">
         <is>
-          <t>00:04:30</t>
+          <t>00:04:44</t>
         </is>
       </c>
       <c r="M36" s="1" t="n">
@@ -4898,14 +4898,14 @@
         <v>0</v>
       </c>
       <c r="P36" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="1" t="n">
-        <v>118.01</v>
+        <v>104.01</v>
       </c>
       <c r="R36" s="1" t="inlineStr">
         <is>
-          <t>May 16 9:22AM CST</t>
+          <t>Jun 27 9:20AM CST</t>
         </is>
       </c>
       <c r="S36" s="1" t="n">
@@ -4958,17 +4958,17 @@
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Marcos Barbosa</t>
+          <t>Martin Quezada</t>
         </is>
       </c>
       <c r="B37" s="1" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2023</t>
+          <t>INTERNACIONAL</t>
         </is>
       </c>
       <c r="D37" s="9" t="n">
@@ -4976,86 +4976,86 @@
       </c>
       <c r="E37" s="1" t="inlineStr">
         <is>
-          <t>63:46:33</t>
+          <t>26:05:03</t>
         </is>
       </c>
       <c r="F37" s="1" t="n">
-        <v>1002</v>
+        <v>1038</v>
       </c>
       <c r="G37" s="1" t="n">
-        <v>134.31</v>
+        <v>345.34</v>
       </c>
       <c r="H37" s="1" t="n">
         <v>5</v>
       </c>
       <c r="I37" s="1" t="inlineStr">
         <is>
-          <t>00:05:04</t>
+          <t>00:06:48</t>
         </is>
       </c>
       <c r="J37" s="1" t="inlineStr">
         <is>
-          <t>00:02:59</t>
+          <t>00:13:40</t>
         </is>
       </c>
       <c r="K37" s="1" t="inlineStr">
         <is>
-          <t>00:00:26</t>
+          <t>00:03:29</t>
         </is>
       </c>
       <c r="L37" s="1" t="inlineStr">
         <is>
+          <t>00:00:44</t>
+        </is>
+      </c>
+      <c r="M37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="O37" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1" t="n">
+        <v>102.01</v>
+      </c>
+      <c r="R37" s="1" t="inlineStr">
+        <is>
+          <t>Jun 27 9:22AM CST</t>
+        </is>
+      </c>
+      <c r="S37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="U37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="1" t="inlineStr">
+        <is>
+          <t>Sin ruta.</t>
+        </is>
+      </c>
+      <c r="Z37" s="1" t="inlineStr">
+        <is>
           <t>00:00:00</t>
         </is>
       </c>
-      <c r="M37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="1" t="n">
-        <v>98.01000000000001</v>
-      </c>
-      <c r="R37" s="1" t="inlineStr">
-        <is>
-          <t>May 26 2:56PM CST</t>
-        </is>
-      </c>
-      <c r="S37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="U37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="1" t="inlineStr">
-        <is>
-          <t>Sin ruta.</t>
-        </is>
-      </c>
-      <c r="Z37" s="1" t="inlineStr">
-        <is>
-          <t>00:00:00</t>
-        </is>
-      </c>
       <c r="AA37" s="1" t="n">
         <v>0</v>
       </c>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="AD37" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AE37" s="1" t="n">
         <v>0</v>
@@ -5078,17 +5078,17 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Fernando Ornelas</t>
+          <t>Abraham Arana</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>TOYOTA HILUX 2020</t>
+          <t>TOYOTA HILUX 2021</t>
         </is>
       </c>
       <c r="D38" s="9" t="n">
@@ -5096,43 +5096,43 @@
       </c>
       <c r="E38" s="1" t="inlineStr">
         <is>
-          <t>54:21:57</t>
+          <t>30:28:02</t>
         </is>
       </c>
       <c r="F38" s="1" t="n">
-        <v>946.4</v>
+        <v>519.5</v>
       </c>
       <c r="G38" s="1" t="n">
-        <v>152.67</v>
+        <v>93.87</v>
       </c>
       <c r="H38" s="1" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I38" s="1" t="inlineStr">
         <is>
-          <t>00:20:01</t>
+          <t>00:05:08</t>
         </is>
       </c>
       <c r="J38" s="1" t="inlineStr">
         <is>
-          <t>00:22:07</t>
+          <t>00:05:13</t>
         </is>
       </c>
       <c r="K38" s="1" t="inlineStr">
         <is>
-          <t>00:02:38</t>
+          <t>00:00:50</t>
         </is>
       </c>
       <c r="L38" s="1" t="inlineStr">
         <is>
-          <t>00:00:21</t>
+          <t>00:00:44</t>
         </is>
       </c>
       <c r="M38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="N38" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" s="1" t="n">
         <v>0</v>
@@ -5141,11 +5141,11 @@
         <v>0</v>
       </c>
       <c r="Q38" s="1" t="n">
-        <v>90.01000000000001</v>
+        <v>94.01000000000001</v>
       </c>
       <c r="R38" s="1" t="inlineStr">
         <is>
-          <t>May 14 10:54AM CST</t>
+          <t>Jun 23 4:00PM CST</t>
         </is>
       </c>
       <c r="S38" s="1" t="n">
@@ -5158,13 +5158,13 @@
         <v>0</v>
       </c>
       <c r="V38" s="1" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W38" s="1" t="n">
         <v>0</v>
       </c>
       <c r="X38" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38" s="1" t="inlineStr">
         <is>
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="AD38" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE38" s="1" t="n">
         <v>0</v>
